--- a/LORILLA, LOIDA.xlsx
+++ b/LORILLA, LOIDA.xlsx
@@ -1,51 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49241AC4-6B4E-4816-A168-0C8DEC202416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293AC90E-1986-49DA-9C0F-C425DA7BDC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
   <sheets>
-    <sheet name="CASUAL LEAVE 2017" sheetId="1" r:id="rId1"/>
-    <sheet name="CASUAL 2018" sheetId="3" r:id="rId2"/>
+    <sheet name="2018 LEAVE CREDITS" sheetId="3" r:id="rId1"/>
+    <sheet name="2017 LEAVE BALANCE" sheetId="1" r:id="rId2"/>
     <sheet name="CONVERTION" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="BALANCE_1" localSheetId="1">Table13[[#Headers],[BALANCE]]</definedName>
+    <definedName name="BALANCE_1" localSheetId="0">Table13[[#Headers],[BALANCE]]</definedName>
     <definedName name="BALANCE_1" localSheetId="2">[1]!Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'CASUAL 2018'!$1:$9</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'CASUAL LEAVE 2017'!$1:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
   <si>
     <t>PERIOD</t>
   </si>
@@ -216,6 +208,12 @@
   </si>
   <si>
     <t>12/23,26-29</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>8/31, 9/1,2</t>
   </si>
 </sst>
 </file>
@@ -1149,6 +1147,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{66CA79AD-9A0A-4D2A-9634-0F157A17B2FB}" name="Table13" displayName="Table13" ref="A8:K127" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{3A634C60-D128-41F1-9B62-2F99DBEC4EDF}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{EB11120A-412C-4E6B-BDA9-A35E8A4296FD}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{495D48D6-287C-4EF9-BF60-2657B9DFB38C}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{2E765714-CE67-472F-A059-02953AA85366}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{407CE15B-C992-4662-BD9F-778D64AF693A}" name="BALANCE" dataDxfId="6">
+      <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{456021F5-C509-462E-9EEF-E673C7189988}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{F197FCB5-1271-40B3-990D-4AE170199879}" name="EARNED " dataDxfId="4">
+      <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{8E82170C-B6C9-48B7-B313-1907C986CD63}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{E64BBC13-197C-4AC6-B5A6-A978E08148D2}" name="BALANCE " dataDxfId="2">
+      <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{D07BEF6E-7B3D-4E53-B43C-2E068A6B25C2}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{911EDAD0-8BF4-4D81-9678-6444DDD1B624}" name="REMARKS" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altText="BALANCE_2"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K128" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="25"/>
@@ -1168,36 +1196,6 @@
     </tableColumn>
     <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
     <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="15"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altText="BALANCE_2"/>
-    </ext>
-  </extLst>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{66CA79AD-9A0A-4D2A-9634-0F157A17B2FB}" name="Table13" displayName="Table13" ref="A8:K128" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{3A634C60-D128-41F1-9B62-2F99DBEC4EDF}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{EB11120A-412C-4E6B-BDA9-A35E8A4296FD}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{495D48D6-287C-4EF9-BF60-2657B9DFB38C}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{2E765714-CE67-472F-A059-02953AA85366}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{407CE15B-C992-4662-BD9F-778D64AF693A}" name="BALANCE" dataDxfId="6">
-      <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{456021F5-C509-462E-9EEF-E673C7189988}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{F197FCB5-1271-40B3-990D-4AE170199879}" name="EARNED " dataDxfId="4">
-      <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{8E82170C-B6C9-48B7-B313-1907C986CD63}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{E64BBC13-197C-4AC6-B5A6-A978E08148D2}" name="BALANCE " dataDxfId="2">
-      <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{D07BEF6E-7B3D-4E53-B43C-2E068A6B25C2}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{911EDAD0-8BF4-4D81-9678-6444DDD1B624}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1504,16 +1502,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE25F0DE-809A-4E04-9178-FDF841D8C5DD}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K128"/>
+  <dimension ref="A2:K127"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A4" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3576" topLeftCell="A67"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1575,7 +1573,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C4" s="50"/>
       <c r="D4" s="23" t="s">
@@ -1671,6 +1669,2400 @@
       <c r="C9" s="14"/>
       <c r="D9" s="12"/>
       <c r="E9" s="14">
+        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
+        <v>51.25</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="14">
+        <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
+        <v>76.25</v>
+      </c>
+      <c r="J9" s="12"/>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="12"/>
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="24">
+        <v>43101</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D11" s="12"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H11" s="12"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="21"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>43132</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H12" s="12"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="21"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="24">
+        <v>43160</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="21"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="24">
+        <v>43191</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="24">
+        <v>43221</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="21"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="24">
+        <v>43252</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="24">
+        <v>43282</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="24">
+        <v>43313</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="24">
+        <v>43344</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H19" s="12"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="21"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="24">
+        <v>43374</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H20" s="12"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="24">
+        <v>43405</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="21"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="24">
+        <v>43435</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D22" s="12">
+        <v>5</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H22" s="12"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="21"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="16"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="24">
+        <v>43466</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H24" s="12"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="21"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="24">
+        <v>43497</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H25" s="12"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="21"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="24">
+        <v>43525</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H26" s="12"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="21"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="24">
+        <v>43556</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H27" s="12"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="21"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="24">
+        <v>43586</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H28" s="12"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="21"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="24">
+        <v>43617</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="C29" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D29" s="12"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="21"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="24">
+        <v>43647</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D30" s="12"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H30" s="12"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="21"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="24">
+        <v>43678</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H31" s="12"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="21"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="24">
+        <v>43709</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="C32" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="21"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="24">
+        <v>43739</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="C33" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D33" s="12"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H33" s="12"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="21"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="24">
+        <v>43770</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="C34" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="21"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="24">
+        <v>43800</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D35" s="12">
+        <v>5</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H35" s="12"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="21"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H36" s="12"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="21"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="24">
+        <v>43831</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="21"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="24">
+        <v>43862</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H38" s="12"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="21"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="24">
+        <v>43891</v>
+      </c>
+      <c r="B39" s="12"/>
+      <c r="C39" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H39" s="12"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="21"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="24">
+        <v>43922</v>
+      </c>
+      <c r="B40" s="12"/>
+      <c r="C40" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H40" s="12"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="21"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="24">
+        <v>43952</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H41" s="12"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="21"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="24">
+        <v>43983</v>
+      </c>
+      <c r="B42" s="12"/>
+      <c r="C42" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H42" s="12"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="21"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="24">
+        <v>44013</v>
+      </c>
+      <c r="B43" s="12"/>
+      <c r="C43" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H43" s="12"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="21"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="24">
+        <v>44044</v>
+      </c>
+      <c r="B44" s="12"/>
+      <c r="C44" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H44" s="12"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="21"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="24">
+        <v>44075</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D45" s="12"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H45" s="12"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="21"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="24">
+        <v>44105</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H46" s="12"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="21"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="24">
+        <v>44136</v>
+      </c>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="16"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="24">
+        <v>44166</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D48" s="13">
+        <v>5</v>
+      </c>
+      <c r="E48" s="10"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H48" s="12"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="21"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H49" s="12"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="21"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="24">
+        <v>44197</v>
+      </c>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D50" s="13"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H50" s="12"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="21"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="24">
+        <v>44228</v>
+      </c>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D51" s="13"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H51" s="12"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="21"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="24">
+        <v>44256</v>
+      </c>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H52" s="12"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="21"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="24">
+        <v>44287</v>
+      </c>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H53" s="12"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="21"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="24">
+        <v>44317</v>
+      </c>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H54" s="12"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="21"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="24">
+        <v>44348</v>
+      </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D55" s="13"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H55" s="12"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="21"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="24">
+        <v>44378</v>
+      </c>
+      <c r="B56" s="13"/>
+      <c r="C56" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D56" s="13"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H56" s="12"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="21"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="24">
+        <v>44409</v>
+      </c>
+      <c r="B57" s="13"/>
+      <c r="C57" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D57" s="13"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H57" s="12"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="21"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="24">
+        <v>44440</v>
+      </c>
+      <c r="B58" s="13"/>
+      <c r="C58" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D58" s="13"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H58" s="13"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="16"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="24">
+        <v>44470</v>
+      </c>
+      <c r="B59" s="12"/>
+      <c r="C59" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H59" s="12"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="21"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="24">
+        <v>44501</v>
+      </c>
+      <c r="B60" s="12"/>
+      <c r="C60" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D60" s="12"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H60" s="12"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="21"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="24">
+        <v>44531</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D61" s="12">
+        <v>5</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H61" s="12"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="21"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="12"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="12"/>
+      <c r="G62" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H62" s="12"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="21"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="24">
+        <v>44562</v>
+      </c>
+      <c r="B63" s="13"/>
+      <c r="C63" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D63" s="13"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H63" s="13"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="16"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="39">
+        <v>44593</v>
+      </c>
+      <c r="B64" s="21"/>
+      <c r="C64" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D64" s="40"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H64" s="40"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="21"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="39">
+        <v>44621</v>
+      </c>
+      <c r="B65" s="21"/>
+      <c r="C65" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D65" s="40"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H65" s="40"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="21"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="39">
+        <v>44652</v>
+      </c>
+      <c r="B66" s="21"/>
+      <c r="C66" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D66" s="40"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H66" s="40"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="21"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="39">
+        <v>44682</v>
+      </c>
+      <c r="B67" s="21"/>
+      <c r="C67" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D67" s="40"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H67" s="40"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="21"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="39">
+        <v>44713</v>
+      </c>
+      <c r="B68" s="21"/>
+      <c r="C68" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D68" s="40"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="21"/>
+      <c r="G68" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H68" s="40"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="21"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="24">
+        <v>44756</v>
+      </c>
+      <c r="B69" s="12"/>
+      <c r="C69" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D69" s="40"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H69" s="12"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="21"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="39">
+        <v>44774</v>
+      </c>
+      <c r="B70" s="21"/>
+      <c r="C70" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D70" s="40"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H70" s="40"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="21"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="39">
+        <v>44805</v>
+      </c>
+      <c r="B71" s="21"/>
+      <c r="C71" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D71" s="40"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H71" s="40"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="21"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="39">
+        <v>44835</v>
+      </c>
+      <c r="B72" s="21"/>
+      <c r="C72" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D72" s="40"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H72" s="40"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="21"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="39">
+        <v>44866</v>
+      </c>
+      <c r="B73" s="21"/>
+      <c r="C73" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D73" s="40"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H73" s="40"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="21"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="39">
+        <v>44896</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D74" s="40">
+        <v>5</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H74" s="40"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B75" s="21"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H75" s="40"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="21"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="39">
+        <v>44927</v>
+      </c>
+      <c r="B76" s="21"/>
+      <c r="C76" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D76" s="40"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H76" s="40"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="21"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="39"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H77" s="40"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="21"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="39"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H78" s="40"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="21"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="39"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H79" s="40"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="21"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="39"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H80" s="40"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="21"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="39"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H81" s="40"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="21"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="39"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H82" s="40"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="21"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="39"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H83" s="40"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="21"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="39"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H84" s="40"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="21"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="39"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H85" s="40"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="21"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="39"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H86" s="40"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="21"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="39"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H87" s="40"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="21"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="39"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H88" s="40"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="21"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="39"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H89" s="40"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="21"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="39"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H90" s="40"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="21"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="39"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="21"/>
+      <c r="G91" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H91" s="40"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="21"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="39"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="21"/>
+      <c r="G92" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H92" s="40"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="21"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="39"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="21"/>
+      <c r="G93" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H93" s="40"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="21"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="39"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H94" s="40"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="21"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="39"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H95" s="40"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="21"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="39"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H96" s="40"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="21"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="39"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="21"/>
+      <c r="G97" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H97" s="40"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="21"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="39"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H98" s="40"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="21"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="39"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H99" s="40"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="21"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="39"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="40"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H100" s="40"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="21"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="39"/>
+      <c r="B101" s="21"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="40"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H101" s="40"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="21"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="39"/>
+      <c r="B102" s="21"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="40"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H102" s="40"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="21"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="39"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="40"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H103" s="40"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="21"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="39"/>
+      <c r="B104" s="21"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H104" s="40"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="21"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="39"/>
+      <c r="B105" s="21"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="40"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="21"/>
+      <c r="G105" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H105" s="40"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="21"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="39"/>
+      <c r="B106" s="21"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="40"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="21"/>
+      <c r="G106" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H106" s="40"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="21"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="39"/>
+      <c r="B107" s="21"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="40"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H107" s="40"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="21"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="39"/>
+      <c r="B108" s="21"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="40"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H108" s="40"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="21"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="39"/>
+      <c r="B109" s="21"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="21"/>
+      <c r="G109" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H109" s="40"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="21"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="39"/>
+      <c r="B110" s="21"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H110" s="40"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="21"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="39"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="40"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H111" s="40"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="21"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="39"/>
+      <c r="B112" s="21"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="40"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H112" s="40"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="21"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="39"/>
+      <c r="B113" s="21"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="40"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="21"/>
+      <c r="G113" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H113" s="40"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="21"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="39"/>
+      <c r="B114" s="21"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="40"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="21"/>
+      <c r="G114" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H114" s="40"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="21"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="39"/>
+      <c r="B115" s="21"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="40"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H115" s="40"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="21"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="39"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="40"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H116" s="40"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="21"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A117" s="39"/>
+      <c r="B117" s="21"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="40"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H117" s="40"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="21"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A118" s="39"/>
+      <c r="B118" s="21"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="40"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H118" s="40"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="21"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="39"/>
+      <c r="B119" s="21"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="40"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H119" s="40"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="21"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A120" s="39"/>
+      <c r="B120" s="21"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="40"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H120" s="40"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="21"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="39"/>
+      <c r="B121" s="21"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="40"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H121" s="40"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="21"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="39"/>
+      <c r="B122" s="21"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="40"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="21"/>
+      <c r="G122" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H122" s="40"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="21"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A123" s="39"/>
+      <c r="B123" s="21"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="40"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="21"/>
+      <c r="G123" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H123" s="40"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="21"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="39"/>
+      <c r="B124" s="21"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="40"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="21"/>
+      <c r="G124" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H124" s="40"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="21"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="39"/>
+      <c r="B125" s="21"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="40"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="21"/>
+      <c r="G125" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H125" s="40"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="12"/>
+      <c r="K125" s="21"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="39"/>
+      <c r="B126" s="21"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="40"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="21"/>
+      <c r="G126" s="14" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H126" s="40"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="12"/>
+      <c r="K126" s="21"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="41"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="42"/>
+      <c r="D127" s="43"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H127" s="43"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="13"/>
+      <c r="K127" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:K3"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{E607F347-487E-43DB-9B9B-016E50D85E99}">
+      <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{9F2F5693-E291-4542-B346-721CFB2FA41B}">
+      <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
+CITY OF TAGAYTAY
+EMPLOYEE'S LEAVE CARD</oddHeader>
+    <oddFooter>&amp;L
+PREPARED BY: ___________________
+DATE: &amp;D, &amp;T&amp;RPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:K128"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3576" topLeftCell="A7" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="26"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="56"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="27"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="50"/>
+      <c r="D4" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="27"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="H5" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="20"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
         <v>113.532</v>
       </c>
@@ -1682,7 +4074,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>134.58000000000001</v>
+        <v>131.58000000000001</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -1737,7 +4129,9 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
-      <c r="B12" s="12"/>
+      <c r="B12" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="C12" s="14"/>
       <c r="D12" s="12"/>
       <c r="E12" s="9"/>
@@ -1746,10 +4140,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="12">
+        <v>3</v>
+      </c>
       <c r="I12" s="9"/>
       <c r="J12" s="12"/>
-      <c r="K12" s="21"/>
+      <c r="K12" s="21" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
@@ -3647,2420 +6045,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE25F0DE-809A-4E04-9178-FDF841D8C5DD}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:K128"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A64" activePane="bottomLeft"/>
-      <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B76" sqref="B76"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="H5" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="28"/>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="20"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="14">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>163.53199999999998</v>
-      </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="14">
-        <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>209.58</v>
-      </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="12"/>
-      <c r="K10" s="21"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="24">
-        <v>43101</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="21"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="24">
-        <v>43132</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="24">
-        <v>43160</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="21"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="24">
-        <v>43191</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="24">
-        <v>43221</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="24">
-        <v>43252</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="21"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="24">
-        <v>43282</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H17" s="12"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="21"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="24">
-        <v>43313</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="24">
-        <v>43344</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="21"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="24">
-        <v>43374</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="24">
-        <v>43405</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="24">
-        <v>43435</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D22" s="12">
-        <v>5</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="21"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="24">
-        <v>43466</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="21"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="24">
-        <v>43497</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="21"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="24">
-        <v>43525</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H26" s="12"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="21"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="24">
-        <v>43556</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H27" s="12"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="21"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="24">
-        <v>43586</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H28" s="12"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="21"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="24">
-        <v>43617</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="21"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="24">
-        <v>43647</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="21"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="24">
-        <v>43678</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H31" s="12"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="21"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="24">
-        <v>43709</v>
-      </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H32" s="12"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="21"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="24">
-        <v>43739</v>
-      </c>
-      <c r="B33" s="12"/>
-      <c r="C33" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="21"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="24">
-        <v>43770</v>
-      </c>
-      <c r="B34" s="12"/>
-      <c r="C34" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="21"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="24">
-        <v>43800</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D35" s="12">
-        <v>5</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H35" s="12"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="21"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H36" s="12"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="21"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="24">
-        <v>43831</v>
-      </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H37" s="12"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="21"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="24">
-        <v>43862</v>
-      </c>
-      <c r="B38" s="12"/>
-      <c r="C38" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H38" s="12"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="21"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="24">
-        <v>43891</v>
-      </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H39" s="12"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="21"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="24">
-        <v>43922</v>
-      </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H40" s="12"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="21"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="24">
-        <v>43952</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H41" s="12"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="21"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="24">
-        <v>43983</v>
-      </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H42" s="12"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="21"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="24">
-        <v>44013</v>
-      </c>
-      <c r="B43" s="12"/>
-      <c r="C43" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D43" s="12"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H43" s="12"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="21"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="24">
-        <v>44044</v>
-      </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H44" s="12"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="21"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="24">
-        <v>44075</v>
-      </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H45" s="12"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="21"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="24">
-        <v>44105</v>
-      </c>
-      <c r="B46" s="12"/>
-      <c r="C46" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H46" s="12"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="21"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="24">
-        <v>44136</v>
-      </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H47" s="13"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="16"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="24">
-        <v>44166</v>
-      </c>
-      <c r="B48" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C48" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D48" s="13">
-        <v>5</v>
-      </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="21"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H49" s="12"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="21"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="24">
-        <v>44197</v>
-      </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D50" s="13"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H50" s="12"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="21"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="24">
-        <v>44228</v>
-      </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H51" s="12"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="21"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="24">
-        <v>44256</v>
-      </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H52" s="12"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="21"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="24">
-        <v>44287</v>
-      </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H53" s="12"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="21"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="24">
-        <v>44317</v>
-      </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H54" s="12"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="21"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="24">
-        <v>44348</v>
-      </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D55" s="13"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H55" s="12"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="21"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="24">
-        <v>44378</v>
-      </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H56" s="12"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="21"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="24">
-        <v>44409</v>
-      </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H57" s="12"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="21"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="24">
-        <v>44440</v>
-      </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D58" s="13"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H58" s="13"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="16"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="24">
-        <v>44470</v>
-      </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D59" s="12"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H59" s="12"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="21"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="24">
-        <v>44501</v>
-      </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D60" s="12"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H60" s="12"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="21"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="24">
-        <v>44531</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C61" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D61" s="12">
-        <v>5</v>
-      </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H61" s="12"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="21"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" s="12"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="12"/>
-      <c r="E62" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F62" s="12"/>
-      <c r="G62" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H62" s="12"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="21"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="24">
-        <v>44562</v>
-      </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D63" s="13"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H63" s="13"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="16"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="39">
-        <v>44593</v>
-      </c>
-      <c r="B64" s="21"/>
-      <c r="C64" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D64" s="40"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H64" s="40"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="21"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="39">
-        <v>44621</v>
-      </c>
-      <c r="B65" s="21"/>
-      <c r="C65" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D65" s="40"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H65" s="40"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="21"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="39">
-        <v>44652</v>
-      </c>
-      <c r="B66" s="21"/>
-      <c r="C66" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D66" s="40"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H66" s="40"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="21"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="39">
-        <v>44682</v>
-      </c>
-      <c r="B67" s="21"/>
-      <c r="C67" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D67" s="40"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H67" s="40"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="21"/>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="39">
-        <v>44713</v>
-      </c>
-      <c r="B68" s="21"/>
-      <c r="C68" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D68" s="40"/>
-      <c r="E68" s="9"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H68" s="40"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="21"/>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="24">
-        <v>44756</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C69" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D69" s="40"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H69" s="12">
-        <v>3</v>
-      </c>
-      <c r="I69" s="37"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="24"/>
-      <c r="B70" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C70" s="14"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="9"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H70" s="12"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="39">
-        <v>44774</v>
-      </c>
-      <c r="B71" s="21"/>
-      <c r="C71" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D71" s="40"/>
-      <c r="E71" s="9"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H71" s="40"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="21"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="39">
-        <v>44805</v>
-      </c>
-      <c r="B72" s="21"/>
-      <c r="C72" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D72" s="40"/>
-      <c r="E72" s="9"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H72" s="40"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="21"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="39">
-        <v>44835</v>
-      </c>
-      <c r="B73" s="21"/>
-      <c r="C73" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D73" s="40"/>
-      <c r="E73" s="9"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H73" s="40"/>
-      <c r="I73" s="9"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="21"/>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="39">
-        <v>44866</v>
-      </c>
-      <c r="B74" s="21"/>
-      <c r="C74" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D74" s="40"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H74" s="40"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="21"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="39">
-        <v>44896</v>
-      </c>
-      <c r="B75" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C75" s="14">
-        <v>1.25</v>
-      </c>
-      <c r="D75" s="40">
-        <v>5</v>
-      </c>
-      <c r="E75" s="9"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="14">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H75" s="40"/>
-      <c r="I75" s="9"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="39"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="40"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H76" s="40"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="21"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="39"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="40"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H77" s="40"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="21"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="39"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="40"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H78" s="40"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="21"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="39"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="40"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H79" s="40"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="21"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="39"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="40"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H80" s="40"/>
-      <c r="I80" s="9"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="21"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="39"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="40"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H81" s="40"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="21"/>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="39"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="40"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H82" s="40"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="21"/>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="39"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="40"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H83" s="40"/>
-      <c r="I83" s="9"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="21"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="39"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="40"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H84" s="40"/>
-      <c r="I84" s="9"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="21"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="39"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="40"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H85" s="40"/>
-      <c r="I85" s="9"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="21"/>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="39"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="40"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H86" s="40"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="21"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="39"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="40"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H87" s="40"/>
-      <c r="I87" s="9"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="21"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="39"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H88" s="40"/>
-      <c r="I88" s="9"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="21"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="39"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="40"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H89" s="40"/>
-      <c r="I89" s="9"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="21"/>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="39"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="40"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H90" s="40"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="21"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="39"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="40"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H91" s="40"/>
-      <c r="I91" s="9"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="21"/>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="39"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="40"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H92" s="40"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="21"/>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="39"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="40"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H93" s="40"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="21"/>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="39"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="40"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H94" s="40"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="21"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="39"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="40"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H95" s="40"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="21"/>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="39"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="40"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H96" s="40"/>
-      <c r="I96" s="9"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="21"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="39"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="40"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H97" s="40"/>
-      <c r="I97" s="9"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="21"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="39"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="40"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H98" s="40"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="21"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="39"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="40"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H99" s="40"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="21"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="39"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="40"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="21"/>
-      <c r="G100" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H100" s="40"/>
-      <c r="I100" s="9"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="21"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="39"/>
-      <c r="B101" s="21"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="40"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="21"/>
-      <c r="G101" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H101" s="40"/>
-      <c r="I101" s="9"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="21"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="39"/>
-      <c r="B102" s="21"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="40"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H102" s="40"/>
-      <c r="I102" s="9"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="21"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="39"/>
-      <c r="B103" s="21"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="40"/>
-      <c r="E103" s="9"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H103" s="40"/>
-      <c r="I103" s="9"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="21"/>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="39"/>
-      <c r="B104" s="21"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="40"/>
-      <c r="E104" s="9"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H104" s="40"/>
-      <c r="I104" s="9"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="21"/>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="39"/>
-      <c r="B105" s="21"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="40"/>
-      <c r="E105" s="9"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H105" s="40"/>
-      <c r="I105" s="9"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="21"/>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="39"/>
-      <c r="B106" s="21"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="40"/>
-      <c r="E106" s="9"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H106" s="40"/>
-      <c r="I106" s="9"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="21"/>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="39"/>
-      <c r="B107" s="21"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="40"/>
-      <c r="E107" s="9"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H107" s="40"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="21"/>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="39"/>
-      <c r="B108" s="21"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="40"/>
-      <c r="E108" s="9"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H108" s="40"/>
-      <c r="I108" s="9"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="21"/>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="39"/>
-      <c r="B109" s="21"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="40"/>
-      <c r="E109" s="9"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H109" s="40"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="21"/>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="39"/>
-      <c r="B110" s="21"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="40"/>
-      <c r="E110" s="9"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H110" s="40"/>
-      <c r="I110" s="9"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="21"/>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="39"/>
-      <c r="B111" s="21"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="40"/>
-      <c r="E111" s="9"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H111" s="40"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="21"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="39"/>
-      <c r="B112" s="21"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="40"/>
-      <c r="E112" s="9"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H112" s="40"/>
-      <c r="I112" s="9"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="21"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="39"/>
-      <c r="B113" s="21"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="40"/>
-      <c r="E113" s="9"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H113" s="40"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="21"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="39"/>
-      <c r="B114" s="21"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="40"/>
-      <c r="E114" s="9"/>
-      <c r="F114" s="21"/>
-      <c r="G114" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H114" s="40"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="21"/>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="39"/>
-      <c r="B115" s="21"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="40"/>
-      <c r="E115" s="9"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H115" s="40"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="21"/>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="39"/>
-      <c r="B116" s="21"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="40"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="21"/>
-      <c r="G116" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H116" s="40"/>
-      <c r="I116" s="9"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="21"/>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="39"/>
-      <c r="B117" s="21"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="40"/>
-      <c r="E117" s="9"/>
-      <c r="F117" s="21"/>
-      <c r="G117" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H117" s="40"/>
-      <c r="I117" s="9"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="21"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="39"/>
-      <c r="B118" s="21"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="40"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="21"/>
-      <c r="G118" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H118" s="40"/>
-      <c r="I118" s="9"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="21"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="39"/>
-      <c r="B119" s="21"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="40"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="21"/>
-      <c r="G119" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H119" s="40"/>
-      <c r="I119" s="9"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="21"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="39"/>
-      <c r="B120" s="21"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="40"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="21"/>
-      <c r="G120" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H120" s="40"/>
-      <c r="I120" s="9"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="21"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="39"/>
-      <c r="B121" s="21"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="40"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="21"/>
-      <c r="G121" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H121" s="40"/>
-      <c r="I121" s="9"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="21"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="39"/>
-      <c r="B122" s="21"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="40"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="21"/>
-      <c r="G122" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H122" s="40"/>
-      <c r="I122" s="9"/>
-      <c r="J122" s="12"/>
-      <c r="K122" s="21"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="39"/>
-      <c r="B123" s="21"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="40"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="21"/>
-      <c r="G123" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H123" s="40"/>
-      <c r="I123" s="9"/>
-      <c r="J123" s="12"/>
-      <c r="K123" s="21"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="39"/>
-      <c r="B124" s="21"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="40"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="21"/>
-      <c r="G124" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H124" s="40"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="21"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="39"/>
-      <c r="B125" s="21"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="40"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="21"/>
-      <c r="G125" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H125" s="40"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="21"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="39"/>
-      <c r="B126" s="21"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="40"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="21"/>
-      <c r="G126" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H126" s="40"/>
-      <c r="I126" s="9"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="21"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="39"/>
-      <c r="B127" s="21"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="40"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="21"/>
-      <c r="G127" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H127" s="40"/>
-      <c r="I127" s="9"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="21"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="41"/>
-      <c r="B128" s="16"/>
-      <c r="C128" s="42"/>
-      <c r="D128" s="43"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="16"/>
-      <c r="G128" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H128" s="43"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="13"/>
-      <c r="K128" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J3:K3"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{E607F347-487E-43DB-9B9B-016E50D85E99}">
-      <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{9F2F5693-E291-4542-B346-721CFB2FA41B}">
-      <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
-CITY OF TAGAYTAY
-EMPLOYEE'S LEAVE CARD</oddHeader>
-    <oddFooter>&amp;L
-PREPARED BY: ___________________
-DATE: &amp;D, &amp;T&amp;RPage &amp;P of &amp;N</oddFooter>
-  </headerFooter>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6DF311-E85D-4C54-A4E0-780068B65759}">
   <dimension ref="A1:L67"/>

--- a/LORILLA, LOIDA.xlsx
+++ b/LORILLA, LOIDA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293AC90E-1986-49DA-9C0F-C425DA7BDC09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="3" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
   <si>
     <t>PERIOD</t>
   </si>
@@ -215,11 +214,14 @@
   <si>
     <t>8/31, 9/1,2</t>
   </si>
+  <si>
+    <t>4/4,5,11/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -594,9 +596,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -606,17 +605,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -632,6 +634,247 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="30">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -859,249 +1102,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1147,25 +1147,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{66CA79AD-9A0A-4D2A-9634-0F157A17B2FB}" name="Table13" displayName="Table13" ref="A8:K127" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K127" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{3A634C60-D128-41F1-9B62-2F99DBEC4EDF}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{EB11120A-412C-4E6B-BDA9-A35E8A4296FD}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{495D48D6-287C-4EF9-BF60-2657B9DFB38C}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{2E765714-CE67-472F-A059-02953AA85366}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{407CE15B-C992-4662-BD9F-778D64AF693A}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{456021F5-C509-462E-9EEF-E673C7189988}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{F197FCB5-1271-40B3-990D-4AE170199879}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8E82170C-B6C9-48B7-B313-1907C986CD63}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{E64BBC13-197C-4AC6-B5A6-A978E08148D2}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D07BEF6E-7B3D-4E53-B43C-2E068A6B25C2}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{911EDAD0-8BF4-4D81-9678-6444DDD1B624}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1177,25 +1177,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K128" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K128" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1502,93 +1502,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE25F0DE-809A-4E04-9178-FDF841D8C5DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K127"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A67"/>
+      <pane ySplit="3570" topLeftCell="A67"/>
       <selection activeCell="I9" sqref="I9"/>
       <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -1596,7 +1596,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -1609,24 +1609,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -1685,7 +1685,7 @@
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>34</v>
       </c>
@@ -1707,7 +1707,7 @@
       <c r="J10" s="12"/>
       <c r="K10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43101</v>
       </c>
@@ -1727,7 +1727,7 @@
       <c r="J11" s="12"/>
       <c r="K11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24">
         <v>43132</v>
       </c>
@@ -1747,7 +1747,7 @@
       <c r="J12" s="12"/>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>43160</v>
       </c>
@@ -1767,7 +1767,7 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>43191</v>
       </c>
@@ -1787,7 +1787,7 @@
       <c r="J14" s="12"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>43221</v>
       </c>
@@ -1807,7 +1807,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24">
         <v>43252</v>
       </c>
@@ -1827,7 +1827,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>43282</v>
       </c>
@@ -1847,7 +1847,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <v>43313</v>
       </c>
@@ -1867,7 +1867,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <v>43344</v>
       </c>
@@ -1887,7 +1887,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <v>43374</v>
       </c>
@@ -1907,7 +1907,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <v>43405</v>
       </c>
@@ -1927,7 +1927,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>43435</v>
       </c>
@@ -1951,7 +1951,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38" t="s">
         <v>35</v>
       </c>
@@ -1969,7 +1969,7 @@
       <c r="J23" s="13"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <v>43466</v>
       </c>
@@ -1989,7 +1989,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <v>43497</v>
       </c>
@@ -2009,7 +2009,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <v>43525</v>
       </c>
@@ -2029,7 +2029,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <v>43556</v>
       </c>
@@ -2049,7 +2049,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <v>43586</v>
       </c>
@@ -2069,7 +2069,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <v>43617</v>
       </c>
@@ -2089,7 +2089,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <v>43647</v>
       </c>
@@ -2109,7 +2109,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <v>43678</v>
       </c>
@@ -2129,7 +2129,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <v>43709</v>
       </c>
@@ -2149,7 +2149,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <v>43739</v>
       </c>
@@ -2169,7 +2169,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <v>43770</v>
       </c>
@@ -2189,7 +2189,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <v>43800</v>
       </c>
@@ -2213,7 +2213,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="38" t="s">
         <v>36</v>
       </c>
@@ -2231,7 +2231,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <v>43831</v>
       </c>
@@ -2251,7 +2251,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <v>43862</v>
       </c>
@@ -2271,7 +2271,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <v>43891</v>
       </c>
@@ -2291,7 +2291,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <v>43922</v>
       </c>
@@ -2311,7 +2311,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <v>43952</v>
       </c>
@@ -2331,7 +2331,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <v>43983</v>
       </c>
@@ -2351,7 +2351,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <v>44013</v>
       </c>
@@ -2371,7 +2371,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <v>44044</v>
       </c>
@@ -2391,7 +2391,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <v>44075</v>
       </c>
@@ -2411,7 +2411,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <v>44105</v>
       </c>
@@ -2431,7 +2431,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <v>44136</v>
       </c>
@@ -2451,7 +2451,7 @@
       <c r="J47" s="13"/>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <v>44166</v>
       </c>
@@ -2475,7 +2475,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
         <v>37</v>
       </c>
@@ -2493,7 +2493,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <v>44197</v>
       </c>
@@ -2513,7 +2513,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <v>44228</v>
       </c>
@@ -2533,7 +2533,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <v>44256</v>
       </c>
@@ -2553,7 +2553,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <v>44287</v>
       </c>
@@ -2573,7 +2573,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <v>44317</v>
       </c>
@@ -2593,7 +2593,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <v>44348</v>
       </c>
@@ -2613,7 +2613,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <v>44378</v>
       </c>
@@ -2633,7 +2633,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <v>44409</v>
       </c>
@@ -2653,7 +2653,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <v>44440</v>
       </c>
@@ -2673,7 +2673,7 @@
       <c r="J58" s="13"/>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24">
         <v>44470</v>
       </c>
@@ -2693,7 +2693,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24">
         <v>44501</v>
       </c>
@@ -2713,7 +2713,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24">
         <v>44531</v>
       </c>
@@ -2737,7 +2737,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38" t="s">
         <v>38</v>
       </c>
@@ -2757,7 +2757,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24">
         <v>44562</v>
       </c>
@@ -2777,7 +2777,7 @@
       <c r="J63" s="13"/>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="39">
         <v>44593</v>
       </c>
@@ -2797,7 +2797,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="39">
         <v>44621</v>
       </c>
@@ -2817,7 +2817,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="39">
         <v>44652</v>
       </c>
@@ -2837,7 +2837,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="39">
         <v>44682</v>
       </c>
@@ -2857,7 +2857,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="39">
         <v>44713</v>
       </c>
@@ -2877,7 +2877,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>44756</v>
       </c>
@@ -2897,7 +2897,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="39">
         <v>44774</v>
       </c>
@@ -2917,7 +2917,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="39">
         <v>44805</v>
       </c>
@@ -2937,7 +2937,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="39">
         <v>44835</v>
       </c>
@@ -2957,7 +2957,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="39">
         <v>44866</v>
       </c>
@@ -2977,7 +2977,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="39">
         <v>44896</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
         <v>57</v>
       </c>
@@ -3021,7 +3021,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="39">
         <v>44927</v>
       </c>
@@ -3041,7 +3041,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="39"/>
       <c r="B77" s="21"/>
       <c r="C77" s="14"/>
@@ -3057,7 +3057,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="39"/>
       <c r="B78" s="21"/>
       <c r="C78" s="14"/>
@@ -3073,7 +3073,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="39"/>
       <c r="B79" s="21"/>
       <c r="C79" s="14"/>
@@ -3089,7 +3089,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="39"/>
       <c r="B80" s="21"/>
       <c r="C80" s="14"/>
@@ -3105,7 +3105,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="39"/>
       <c r="B81" s="21"/>
       <c r="C81" s="14"/>
@@ -3121,7 +3121,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="39"/>
       <c r="B82" s="21"/>
       <c r="C82" s="14"/>
@@ -3137,7 +3137,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="39"/>
       <c r="B83" s="21"/>
       <c r="C83" s="14"/>
@@ -3153,7 +3153,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="39"/>
       <c r="B84" s="21"/>
       <c r="C84" s="14"/>
@@ -3169,7 +3169,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="39"/>
       <c r="B85" s="21"/>
       <c r="C85" s="14"/>
@@ -3185,7 +3185,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="39"/>
       <c r="B86" s="21"/>
       <c r="C86" s="14"/>
@@ -3201,7 +3201,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="39"/>
       <c r="B87" s="21"/>
       <c r="C87" s="14"/>
@@ -3217,7 +3217,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="39"/>
       <c r="B88" s="21"/>
       <c r="C88" s="14"/>
@@ -3233,7 +3233,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="39"/>
       <c r="B89" s="21"/>
       <c r="C89" s="14"/>
@@ -3249,7 +3249,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="39"/>
       <c r="B90" s="21"/>
       <c r="C90" s="14"/>
@@ -3265,7 +3265,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="39"/>
       <c r="B91" s="21"/>
       <c r="C91" s="14"/>
@@ -3281,7 +3281,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="39"/>
       <c r="B92" s="21"/>
       <c r="C92" s="14"/>
@@ -3297,7 +3297,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="39"/>
       <c r="B93" s="21"/>
       <c r="C93" s="14"/>
@@ -3313,7 +3313,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="39"/>
       <c r="B94" s="21"/>
       <c r="C94" s="14"/>
@@ -3329,7 +3329,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="39"/>
       <c r="B95" s="21"/>
       <c r="C95" s="14"/>
@@ -3345,7 +3345,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="39"/>
       <c r="B96" s="21"/>
       <c r="C96" s="14"/>
@@ -3361,7 +3361,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="39"/>
       <c r="B97" s="21"/>
       <c r="C97" s="14"/>
@@ -3377,7 +3377,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="39"/>
       <c r="B98" s="21"/>
       <c r="C98" s="14"/>
@@ -3393,7 +3393,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="39"/>
       <c r="B99" s="21"/>
       <c r="C99" s="14"/>
@@ -3409,7 +3409,7 @@
       <c r="J99" s="12"/>
       <c r="K99" s="21"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="39"/>
       <c r="B100" s="21"/>
       <c r="C100" s="14"/>
@@ -3425,7 +3425,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="39"/>
       <c r="B101" s="21"/>
       <c r="C101" s="14"/>
@@ -3441,7 +3441,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="39"/>
       <c r="B102" s="21"/>
       <c r="C102" s="14"/>
@@ -3457,7 +3457,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="39"/>
       <c r="B103" s="21"/>
       <c r="C103" s="14"/>
@@ -3473,7 +3473,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="39"/>
       <c r="B104" s="21"/>
       <c r="C104" s="14"/>
@@ -3489,7 +3489,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="39"/>
       <c r="B105" s="21"/>
       <c r="C105" s="14"/>
@@ -3505,7 +3505,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="39"/>
       <c r="B106" s="21"/>
       <c r="C106" s="14"/>
@@ -3521,7 +3521,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="39"/>
       <c r="B107" s="21"/>
       <c r="C107" s="14"/>
@@ -3537,7 +3537,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="39"/>
       <c r="B108" s="21"/>
       <c r="C108" s="14"/>
@@ -3553,7 +3553,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="39"/>
       <c r="B109" s="21"/>
       <c r="C109" s="14"/>
@@ -3569,7 +3569,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="39"/>
       <c r="B110" s="21"/>
       <c r="C110" s="14"/>
@@ -3585,7 +3585,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="39"/>
       <c r="B111" s="21"/>
       <c r="C111" s="14"/>
@@ -3601,7 +3601,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="39"/>
       <c r="B112" s="21"/>
       <c r="C112" s="14"/>
@@ -3617,7 +3617,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="39"/>
       <c r="B113" s="21"/>
       <c r="C113" s="14"/>
@@ -3633,7 +3633,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="39"/>
       <c r="B114" s="21"/>
       <c r="C114" s="14"/>
@@ -3649,7 +3649,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="39"/>
       <c r="B115" s="21"/>
       <c r="C115" s="14"/>
@@ -3665,7 +3665,7 @@
       <c r="J115" s="12"/>
       <c r="K115" s="21"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="39"/>
       <c r="B116" s="21"/>
       <c r="C116" s="14"/>
@@ -3681,7 +3681,7 @@
       <c r="J116" s="12"/>
       <c r="K116" s="21"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="39"/>
       <c r="B117" s="21"/>
       <c r="C117" s="14"/>
@@ -3697,7 +3697,7 @@
       <c r="J117" s="12"/>
       <c r="K117" s="21"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="39"/>
       <c r="B118" s="21"/>
       <c r="C118" s="14"/>
@@ -3713,7 +3713,7 @@
       <c r="J118" s="12"/>
       <c r="K118" s="21"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="39"/>
       <c r="B119" s="21"/>
       <c r="C119" s="14"/>
@@ -3729,7 +3729,7 @@
       <c r="J119" s="12"/>
       <c r="K119" s="21"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="39"/>
       <c r="B120" s="21"/>
       <c r="C120" s="14"/>
@@ -3745,7 +3745,7 @@
       <c r="J120" s="12"/>
       <c r="K120" s="21"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="39"/>
       <c r="B121" s="21"/>
       <c r="C121" s="14"/>
@@ -3761,7 +3761,7 @@
       <c r="J121" s="12"/>
       <c r="K121" s="21"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="39"/>
       <c r="B122" s="21"/>
       <c r="C122" s="14"/>
@@ -3777,7 +3777,7 @@
       <c r="J122" s="12"/>
       <c r="K122" s="21"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="39"/>
       <c r="B123" s="21"/>
       <c r="C123" s="14"/>
@@ -3793,7 +3793,7 @@
       <c r="J123" s="12"/>
       <c r="K123" s="21"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="39"/>
       <c r="B124" s="21"/>
       <c r="C124" s="14"/>
@@ -3809,7 +3809,7 @@
       <c r="J124" s="12"/>
       <c r="K124" s="21"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="39"/>
       <c r="B125" s="21"/>
       <c r="C125" s="14"/>
@@ -3825,7 +3825,7 @@
       <c r="J125" s="12"/>
       <c r="K125" s="21"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="39"/>
       <c r="B126" s="21"/>
       <c r="C126" s="14"/>
@@ -3841,7 +3841,7 @@
       <c r="J126" s="12"/>
       <c r="K126" s="21"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="41"/>
       <c r="B127" s="16"/>
       <c r="C127" s="42"/>
@@ -3859,23 +3859,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{E607F347-487E-43DB-9B9B-016E50D85E99}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{9F2F5693-E291-4542-B346-721CFB2FA41B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3896,93 +3896,93 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A7" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3570" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
       <c r="H5" s="28" t="s">
         <v>18</v>
@@ -3990,7 +3990,7 @@
       <c r="I5" s="28"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="8"/>
       <c r="C6" s="32"/>
@@ -4003,24 +4003,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="24"/>
       <c r="B9" s="25" t="s">
         <v>23</v>
@@ -4074,12 +4074,12 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>131.58000000000001</v>
+        <v>128.58000000000001</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>44756</v>
       </c>
@@ -4105,7 +4105,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>44769</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="12" t="s">
         <v>39</v>
@@ -4149,8 +4149,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>57</v>
+      </c>
       <c r="B13" s="12"/>
       <c r="C13" s="14"/>
       <c r="D13" s="12"/>
@@ -4165,9 +4167,13 @@
       <c r="J13" s="12"/>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="12"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="24">
+        <v>45017</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>39</v>
+      </c>
       <c r="C14" s="14"/>
       <c r="D14" s="12"/>
       <c r="E14" s="9"/>
@@ -4176,12 +4182,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H14" s="12"/>
+      <c r="H14" s="12">
+        <v>3</v>
+      </c>
       <c r="I14" s="9"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="12"/>
       <c r="C15" s="14"/>
@@ -4197,7 +4207,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="12"/>
       <c r="C16" s="14"/>
@@ -4213,7 +4223,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="12"/>
       <c r="C17" s="14"/>
@@ -4229,7 +4239,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="12"/>
       <c r="C18" s="14"/>
@@ -4245,7 +4255,7 @@
       <c r="J18" s="12"/>
       <c r="K18" s="21"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="12"/>
       <c r="C19" s="14"/>
@@ -4261,7 +4271,7 @@
       <c r="J19" s="12"/>
       <c r="K19" s="21"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="24"/>
       <c r="B20" s="12"/>
       <c r="C20" s="14"/>
@@ -4277,7 +4287,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="21"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="24"/>
       <c r="B21" s="12"/>
       <c r="C21" s="14"/>
@@ -4293,7 +4303,7 @@
       <c r="J21" s="12"/>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>
       <c r="B22" s="12"/>
       <c r="C22" s="14"/>
@@ -4309,7 +4319,7 @@
       <c r="J22" s="12"/>
       <c r="K22" s="21"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
       <c r="B23" s="13"/>
       <c r="C23" s="14"/>
@@ -4325,7 +4335,7 @@
       <c r="J23" s="13"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="24"/>
       <c r="B24" s="12"/>
       <c r="C24" s="14"/>
@@ -4341,7 +4351,7 @@
       <c r="J24" s="12"/>
       <c r="K24" s="21"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="24"/>
       <c r="B25" s="12"/>
       <c r="C25" s="14"/>
@@ -4357,7 +4367,7 @@
       <c r="J25" s="12"/>
       <c r="K25" s="21"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="24"/>
       <c r="B26" s="12"/>
       <c r="C26" s="14"/>
@@ -4373,7 +4383,7 @@
       <c r="J26" s="12"/>
       <c r="K26" s="21"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="24"/>
       <c r="B27" s="12"/>
       <c r="C27" s="14"/>
@@ -4389,7 +4399,7 @@
       <c r="J27" s="12"/>
       <c r="K27" s="21"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="12"/>
       <c r="C28" s="14"/>
@@ -4405,7 +4415,7 @@
       <c r="J28" s="12"/>
       <c r="K28" s="21"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="24"/>
       <c r="B29" s="12"/>
       <c r="C29" s="14"/>
@@ -4421,7 +4431,7 @@
       <c r="J29" s="12"/>
       <c r="K29" s="21"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="24"/>
       <c r="B30" s="12"/>
       <c r="C30" s="14"/>
@@ -4437,7 +4447,7 @@
       <c r="J30" s="12"/>
       <c r="K30" s="21"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="24"/>
       <c r="B31" s="12"/>
       <c r="C31" s="14"/>
@@ -4453,7 +4463,7 @@
       <c r="J31" s="12"/>
       <c r="K31" s="21"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="24"/>
       <c r="B32" s="12"/>
       <c r="C32" s="14"/>
@@ -4469,7 +4479,7 @@
       <c r="J32" s="12"/>
       <c r="K32" s="21"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="24"/>
       <c r="B33" s="12"/>
       <c r="C33" s="14"/>
@@ -4485,7 +4495,7 @@
       <c r="J33" s="12"/>
       <c r="K33" s="21"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="24"/>
       <c r="B34" s="12"/>
       <c r="C34" s="14"/>
@@ -4501,7 +4511,7 @@
       <c r="J34" s="12"/>
       <c r="K34" s="21"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="24"/>
       <c r="B35" s="12"/>
       <c r="C35" s="14"/>
@@ -4517,7 +4527,7 @@
       <c r="J35" s="12"/>
       <c r="K35" s="21"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="38"/>
       <c r="B36" s="12"/>
       <c r="C36" s="14"/>
@@ -4533,7 +4543,7 @@
       <c r="J36" s="12"/>
       <c r="K36" s="21"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="12"/>
       <c r="C37" s="14"/>
@@ -4549,7 +4559,7 @@
       <c r="J37" s="12"/>
       <c r="K37" s="21"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="12"/>
       <c r="C38" s="14"/>
@@ -4565,7 +4575,7 @@
       <c r="J38" s="12"/>
       <c r="K38" s="21"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
       <c r="B39" s="12"/>
       <c r="C39" s="14"/>
@@ -4581,7 +4591,7 @@
       <c r="J39" s="12"/>
       <c r="K39" s="21"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="24"/>
       <c r="B40" s="12"/>
       <c r="C40" s="14"/>
@@ -4597,7 +4607,7 @@
       <c r="J40" s="12"/>
       <c r="K40" s="21"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="24"/>
       <c r="B41" s="12"/>
       <c r="C41" s="14"/>
@@ -4613,7 +4623,7 @@
       <c r="J41" s="12"/>
       <c r="K41" s="21"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="24"/>
       <c r="B42" s="12"/>
       <c r="C42" s="14"/>
@@ -4629,7 +4639,7 @@
       <c r="J42" s="12"/>
       <c r="K42" s="21"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="24"/>
       <c r="B43" s="12"/>
       <c r="C43" s="14"/>
@@ -4645,7 +4655,7 @@
       <c r="J43" s="12"/>
       <c r="K43" s="21"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="24"/>
       <c r="B44" s="12"/>
       <c r="C44" s="14"/>
@@ -4661,7 +4671,7 @@
       <c r="J44" s="12"/>
       <c r="K44" s="21"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="12"/>
       <c r="C45" s="14"/>
@@ -4677,7 +4687,7 @@
       <c r="J45" s="12"/>
       <c r="K45" s="21"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="24"/>
       <c r="B46" s="12"/>
       <c r="C46" s="14"/>
@@ -4693,7 +4703,7 @@
       <c r="J46" s="12"/>
       <c r="K46" s="21"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="24"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
@@ -4709,7 +4719,7 @@
       <c r="J47" s="13"/>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="24"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
@@ -4725,7 +4735,7 @@
       <c r="J48" s="12"/>
       <c r="K48" s="21"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="38"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
@@ -4741,7 +4751,7 @@
       <c r="J49" s="12"/>
       <c r="K49" s="21"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
@@ -4757,7 +4767,7 @@
       <c r="J50" s="12"/>
       <c r="K50" s="21"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="24"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
@@ -4773,7 +4783,7 @@
       <c r="J51" s="12"/>
       <c r="K51" s="21"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="24"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
@@ -4789,7 +4799,7 @@
       <c r="J52" s="12"/>
       <c r="K52" s="21"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="24"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
@@ -4805,7 +4815,7 @@
       <c r="J53" s="12"/>
       <c r="K53" s="21"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="24"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
@@ -4821,7 +4831,7 @@
       <c r="J54" s="12"/>
       <c r="K54" s="21"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -4837,7 +4847,7 @@
       <c r="J55" s="12"/>
       <c r="K55" s="21"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="24"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
@@ -4853,7 +4863,7 @@
       <c r="J56" s="12"/>
       <c r="K56" s="21"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="24"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
@@ -4869,7 +4879,7 @@
       <c r="J57" s="12"/>
       <c r="K57" s="21"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="24"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
@@ -4885,7 +4895,7 @@
       <c r="J58" s="13"/>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="24"/>
       <c r="B59" s="12"/>
       <c r="C59" s="14"/>
@@ -4901,7 +4911,7 @@
       <c r="J59" s="12"/>
       <c r="K59" s="21"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="24"/>
       <c r="B60" s="12"/>
       <c r="C60" s="14"/>
@@ -4917,7 +4927,7 @@
       <c r="J60" s="12"/>
       <c r="K60" s="21"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="12"/>
       <c r="C61" s="14"/>
@@ -4933,7 +4943,7 @@
       <c r="J61" s="12"/>
       <c r="K61" s="21"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38"/>
       <c r="B62" s="12"/>
       <c r="C62" s="14"/>
@@ -4949,7 +4959,7 @@
       <c r="J62" s="12"/>
       <c r="K62" s="21"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="24"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
@@ -4965,7 +4975,7 @@
       <c r="J63" s="13"/>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="39"/>
       <c r="B64" s="21"/>
       <c r="C64" s="14"/>
@@ -4981,7 +4991,7 @@
       <c r="J64" s="12"/>
       <c r="K64" s="21"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="39"/>
       <c r="B65" s="21"/>
       <c r="C65" s="14"/>
@@ -4997,7 +5007,7 @@
       <c r="J65" s="12"/>
       <c r="K65" s="21"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="39"/>
       <c r="B66" s="21"/>
       <c r="C66" s="14"/>
@@ -5013,7 +5023,7 @@
       <c r="J66" s="12"/>
       <c r="K66" s="21"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="39"/>
       <c r="B67" s="21"/>
       <c r="C67" s="14"/>
@@ -5029,7 +5039,7 @@
       <c r="J67" s="12"/>
       <c r="K67" s="21"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="39"/>
       <c r="B68" s="21"/>
       <c r="C68" s="14"/>
@@ -5045,7 +5055,7 @@
       <c r="J68" s="12"/>
       <c r="K68" s="21"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="39"/>
       <c r="B69" s="21"/>
       <c r="C69" s="14"/>
@@ -5061,7 +5071,7 @@
       <c r="J69" s="12"/>
       <c r="K69" s="21"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="39"/>
       <c r="B70" s="21"/>
       <c r="C70" s="14"/>
@@ -5077,7 +5087,7 @@
       <c r="J70" s="12"/>
       <c r="K70" s="21"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="39"/>
       <c r="B71" s="21"/>
       <c r="C71" s="14"/>
@@ -5093,7 +5103,7 @@
       <c r="J71" s="12"/>
       <c r="K71" s="21"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="39"/>
       <c r="B72" s="21"/>
       <c r="C72" s="14"/>
@@ -5109,7 +5119,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="21"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="39"/>
       <c r="B73" s="21"/>
       <c r="C73" s="14"/>
@@ -5125,7 +5135,7 @@
       <c r="J73" s="12"/>
       <c r="K73" s="21"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="39"/>
       <c r="B74" s="21"/>
       <c r="C74" s="14"/>
@@ -5141,7 +5151,7 @@
       <c r="J74" s="12"/>
       <c r="K74" s="21"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="39"/>
       <c r="B75" s="21"/>
       <c r="C75" s="14"/>
@@ -5157,7 +5167,7 @@
       <c r="J75" s="12"/>
       <c r="K75" s="21"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="39"/>
       <c r="B76" s="21"/>
       <c r="C76" s="14"/>
@@ -5173,7 +5183,7 @@
       <c r="J76" s="12"/>
       <c r="K76" s="21"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="39"/>
       <c r="B77" s="21"/>
       <c r="C77" s="14"/>
@@ -5189,7 +5199,7 @@
       <c r="J77" s="12"/>
       <c r="K77" s="21"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="39"/>
       <c r="B78" s="21"/>
       <c r="C78" s="14"/>
@@ -5205,7 +5215,7 @@
       <c r="J78" s="12"/>
       <c r="K78" s="21"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="39"/>
       <c r="B79" s="21"/>
       <c r="C79" s="14"/>
@@ -5221,7 +5231,7 @@
       <c r="J79" s="12"/>
       <c r="K79" s="21"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="39"/>
       <c r="B80" s="21"/>
       <c r="C80" s="14"/>
@@ -5237,7 +5247,7 @@
       <c r="J80" s="12"/>
       <c r="K80" s="21"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="39"/>
       <c r="B81" s="21"/>
       <c r="C81" s="14"/>
@@ -5253,7 +5263,7 @@
       <c r="J81" s="12"/>
       <c r="K81" s="21"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="39"/>
       <c r="B82" s="21"/>
       <c r="C82" s="14"/>
@@ -5269,7 +5279,7 @@
       <c r="J82" s="12"/>
       <c r="K82" s="21"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="39"/>
       <c r="B83" s="21"/>
       <c r="C83" s="14"/>
@@ -5285,7 +5295,7 @@
       <c r="J83" s="12"/>
       <c r="K83" s="21"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="39"/>
       <c r="B84" s="21"/>
       <c r="C84" s="14"/>
@@ -5301,7 +5311,7 @@
       <c r="J84" s="12"/>
       <c r="K84" s="21"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="39"/>
       <c r="B85" s="21"/>
       <c r="C85" s="14"/>
@@ -5317,7 +5327,7 @@
       <c r="J85" s="12"/>
       <c r="K85" s="21"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="39"/>
       <c r="B86" s="21"/>
       <c r="C86" s="14"/>
@@ -5333,7 +5343,7 @@
       <c r="J86" s="12"/>
       <c r="K86" s="21"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="39"/>
       <c r="B87" s="21"/>
       <c r="C87" s="14"/>
@@ -5349,7 +5359,7 @@
       <c r="J87" s="12"/>
       <c r="K87" s="21"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="39"/>
       <c r="B88" s="21"/>
       <c r="C88" s="14"/>
@@ -5365,7 +5375,7 @@
       <c r="J88" s="12"/>
       <c r="K88" s="21"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="39"/>
       <c r="B89" s="21"/>
       <c r="C89" s="14"/>
@@ -5381,7 +5391,7 @@
       <c r="J89" s="12"/>
       <c r="K89" s="21"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="39"/>
       <c r="B90" s="21"/>
       <c r="C90" s="14"/>
@@ -5397,7 +5407,7 @@
       <c r="J90" s="12"/>
       <c r="K90" s="21"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="39"/>
       <c r="B91" s="21"/>
       <c r="C91" s="14"/>
@@ -5413,7 +5423,7 @@
       <c r="J91" s="12"/>
       <c r="K91" s="21"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="39"/>
       <c r="B92" s="21"/>
       <c r="C92" s="14"/>
@@ -5429,7 +5439,7 @@
       <c r="J92" s="12"/>
       <c r="K92" s="21"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="39"/>
       <c r="B93" s="21"/>
       <c r="C93" s="14"/>
@@ -5445,7 +5455,7 @@
       <c r="J93" s="12"/>
       <c r="K93" s="21"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="39"/>
       <c r="B94" s="21"/>
       <c r="C94" s="14"/>
@@ -5461,7 +5471,7 @@
       <c r="J94" s="12"/>
       <c r="K94" s="21"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="39"/>
       <c r="B95" s="21"/>
       <c r="C95" s="14"/>
@@ -5477,7 +5487,7 @@
       <c r="J95" s="12"/>
       <c r="K95" s="21"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="39"/>
       <c r="B96" s="21"/>
       <c r="C96" s="14"/>
@@ -5493,7 +5503,7 @@
       <c r="J96" s="12"/>
       <c r="K96" s="21"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="39"/>
       <c r="B97" s="21"/>
       <c r="C97" s="14"/>
@@ -5509,7 +5519,7 @@
       <c r="J97" s="12"/>
       <c r="K97" s="21"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="39"/>
       <c r="B98" s="21"/>
       <c r="C98" s="14"/>
@@ -5525,7 +5535,7 @@
       <c r="J98" s="12"/>
       <c r="K98" s="21"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="39"/>
       <c r="B99" s="21"/>
       <c r="C99" s="14"/>
@@ -5541,7 +5551,7 @@
       <c r="J99" s="12"/>
       <c r="K99" s="21"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="39"/>
       <c r="B100" s="21"/>
       <c r="C100" s="14"/>
@@ -5557,7 +5567,7 @@
       <c r="J100" s="12"/>
       <c r="K100" s="21"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="39"/>
       <c r="B101" s="21"/>
       <c r="C101" s="14"/>
@@ -5573,7 +5583,7 @@
       <c r="J101" s="12"/>
       <c r="K101" s="21"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="39"/>
       <c r="B102" s="21"/>
       <c r="C102" s="14"/>
@@ -5589,7 +5599,7 @@
       <c r="J102" s="12"/>
       <c r="K102" s="21"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="39"/>
       <c r="B103" s="21"/>
       <c r="C103" s="14"/>
@@ -5605,7 +5615,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="21"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="39"/>
       <c r="B104" s="21"/>
       <c r="C104" s="14"/>
@@ -5621,7 +5631,7 @@
       <c r="J104" s="12"/>
       <c r="K104" s="21"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="39"/>
       <c r="B105" s="21"/>
       <c r="C105" s="14"/>
@@ -5637,7 +5647,7 @@
       <c r="J105" s="12"/>
       <c r="K105" s="21"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="39"/>
       <c r="B106" s="21"/>
       <c r="C106" s="14"/>
@@ -5653,7 +5663,7 @@
       <c r="J106" s="12"/>
       <c r="K106" s="21"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="39"/>
       <c r="B107" s="21"/>
       <c r="C107" s="14"/>
@@ -5669,7 +5679,7 @@
       <c r="J107" s="12"/>
       <c r="K107" s="21"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="39"/>
       <c r="B108" s="21"/>
       <c r="C108" s="14"/>
@@ -5685,7 +5695,7 @@
       <c r="J108" s="12"/>
       <c r="K108" s="21"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="39"/>
       <c r="B109" s="21"/>
       <c r="C109" s="14"/>
@@ -5701,7 +5711,7 @@
       <c r="J109" s="12"/>
       <c r="K109" s="21"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="39"/>
       <c r="B110" s="21"/>
       <c r="C110" s="14"/>
@@ -5717,7 +5727,7 @@
       <c r="J110" s="12"/>
       <c r="K110" s="21"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="39"/>
       <c r="B111" s="21"/>
       <c r="C111" s="14"/>
@@ -5733,7 +5743,7 @@
       <c r="J111" s="12"/>
       <c r="K111" s="21"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="39"/>
       <c r="B112" s="21"/>
       <c r="C112" s="14"/>
@@ -5749,7 +5759,7 @@
       <c r="J112" s="12"/>
       <c r="K112" s="21"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="39"/>
       <c r="B113" s="21"/>
       <c r="C113" s="14"/>
@@ -5765,7 +5775,7 @@
       <c r="J113" s="12"/>
       <c r="K113" s="21"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="39"/>
       <c r="B114" s="21"/>
       <c r="C114" s="14"/>
@@ -5781,7 +5791,7 @@
       <c r="J114" s="12"/>
       <c r="K114" s="21"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="39"/>
       <c r="B115" s="21"/>
       <c r="C115" s="14"/>
@@ -5797,7 +5807,7 @@
       <c r="J115" s="12"/>
       <c r="K115" s="21"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="39"/>
       <c r="B116" s="21"/>
       <c r="C116" s="14"/>
@@ -5813,7 +5823,7 @@
       <c r="J116" s="12"/>
       <c r="K116" s="21"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="39"/>
       <c r="B117" s="21"/>
       <c r="C117" s="14"/>
@@ -5829,7 +5839,7 @@
       <c r="J117" s="12"/>
       <c r="K117" s="21"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="39"/>
       <c r="B118" s="21"/>
       <c r="C118" s="14"/>
@@ -5845,7 +5855,7 @@
       <c r="J118" s="12"/>
       <c r="K118" s="21"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="39"/>
       <c r="B119" s="21"/>
       <c r="C119" s="14"/>
@@ -5861,7 +5871,7 @@
       <c r="J119" s="12"/>
       <c r="K119" s="21"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="39"/>
       <c r="B120" s="21"/>
       <c r="C120" s="14"/>
@@ -5877,7 +5887,7 @@
       <c r="J120" s="12"/>
       <c r="K120" s="21"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="39"/>
       <c r="B121" s="21"/>
       <c r="C121" s="14"/>
@@ -5893,7 +5903,7 @@
       <c r="J121" s="12"/>
       <c r="K121" s="21"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="39"/>
       <c r="B122" s="21"/>
       <c r="C122" s="14"/>
@@ -5909,7 +5919,7 @@
       <c r="J122" s="12"/>
       <c r="K122" s="21"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="39"/>
       <c r="B123" s="21"/>
       <c r="C123" s="14"/>
@@ -5925,7 +5935,7 @@
       <c r="J123" s="12"/>
       <c r="K123" s="21"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="39"/>
       <c r="B124" s="21"/>
       <c r="C124" s="14"/>
@@ -5941,7 +5951,7 @@
       <c r="J124" s="12"/>
       <c r="K124" s="21"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="39"/>
       <c r="B125" s="21"/>
       <c r="C125" s="14"/>
@@ -5957,7 +5967,7 @@
       <c r="J125" s="12"/>
       <c r="K125" s="21"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="39"/>
       <c r="B126" s="21"/>
       <c r="C126" s="14"/>
@@ -5973,7 +5983,7 @@
       <c r="J126" s="12"/>
       <c r="K126" s="21"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="39"/>
       <c r="B127" s="21"/>
       <c r="C127" s="14"/>
@@ -5989,7 +5999,7 @@
       <c r="J127" s="12"/>
       <c r="K127" s="21"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="41"/>
       <c r="B128" s="16"/>
       <c r="C128" s="42"/>
@@ -6020,10 +6030,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6046,28 +6056,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D6DF311-E85D-4C54-A4E0-780068B65759}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="36" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="36" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="57" t="s">
         <v>33</v>
       </c>
@@ -6080,7 +6090,7 @@
       <c r="K1" s="58"/>
       <c r="L1" s="58"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>24</v>
       </c>
@@ -6109,7 +6119,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>113.532</v>
       </c>
@@ -6133,7 +6143,7 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1" t="str">
         <f>IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2))</f>
         <v/>
@@ -6148,10 +6158,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="35" t="s">
         <v>28</v>
       </c>
@@ -6171,7 +6181,7 @@
       <c r="K6" s="59"/>
       <c r="L6" s="59"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">
         <v>1</v>
       </c>
@@ -6197,7 +6207,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="36">
         <v>2</v>
       </c>
@@ -6223,7 +6233,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="36">
         <v>3</v>
       </c>
@@ -6249,7 +6259,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="36">
         <v>4</v>
       </c>
@@ -6275,7 +6285,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="36">
         <v>5</v>
       </c>
@@ -6301,7 +6311,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="36">
         <v>6</v>
       </c>
@@ -6327,7 +6337,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="36">
         <v>7</v>
       </c>
@@ -6353,7 +6363,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="36">
         <v>8</v>
       </c>
@@ -6379,7 +6389,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="36">
         <v>9</v>
       </c>
@@ -6399,7 +6409,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="36">
         <v>10</v>
       </c>
@@ -6419,7 +6429,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="36">
         <v>11</v>
       </c>
@@ -6439,7 +6449,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="36">
         <v>12</v>
       </c>
@@ -6460,7 +6470,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="36">
         <v>13</v>
       </c>
@@ -6481,7 +6491,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="36">
         <v>14</v>
       </c>
@@ -6502,7 +6512,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="36">
         <v>15</v>
       </c>
@@ -6523,7 +6533,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="36">
         <v>16</v>
       </c>
@@ -6544,7 +6554,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="36">
         <v>17</v>
       </c>
@@ -6565,7 +6575,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="36">
         <v>18</v>
       </c>
@@ -6586,7 +6596,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="36">
         <v>19</v>
       </c>
@@ -6607,7 +6617,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="36">
         <v>20</v>
       </c>
@@ -6628,7 +6638,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="36">
         <v>21</v>
       </c>
@@ -6649,7 +6659,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="36">
         <v>22</v>
       </c>
@@ -6670,7 +6680,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="36">
         <v>23</v>
       </c>
@@ -6691,7 +6701,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="36">
         <v>24</v>
       </c>
@@ -6712,7 +6722,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="36">
         <v>25</v>
       </c>
@@ -6733,7 +6743,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="36">
         <v>26</v>
       </c>
@@ -6754,7 +6764,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="36">
         <v>27</v>
       </c>
@@ -6775,7 +6785,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="36">
         <v>28</v>
       </c>
@@ -6796,7 +6806,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="36">
         <v>29</v>
       </c>
@@ -6817,7 +6827,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36">
         <v>30</v>
       </c>
@@ -6838,7 +6848,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36">
         <v>31</v>
       </c>
@@ -6859,7 +6869,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36">
         <v>32</v>
       </c>
@@ -6868,7 +6878,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36">
         <v>33</v>
       </c>
@@ -6877,7 +6887,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36">
         <v>34</v>
       </c>
@@ -6886,7 +6896,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36">
         <v>35</v>
       </c>
@@ -6895,7 +6905,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36">
         <v>36</v>
       </c>
@@ -6904,7 +6914,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36">
         <v>37</v>
       </c>
@@ -6913,7 +6923,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36">
         <v>38</v>
       </c>
@@ -6922,7 +6932,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36">
         <v>39</v>
       </c>
@@ -6931,7 +6941,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36">
         <v>40</v>
       </c>
@@ -6940,7 +6950,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36">
         <v>41</v>
       </c>
@@ -6949,7 +6959,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="36">
         <v>42</v>
       </c>
@@ -6958,7 +6968,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="36">
         <v>43</v>
       </c>
@@ -6967,7 +6977,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="36">
         <v>44</v>
       </c>
@@ -6976,7 +6986,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="36">
         <v>45</v>
       </c>
@@ -6985,7 +6995,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="36">
         <v>46</v>
       </c>
@@ -6994,7 +7004,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="36">
         <v>47</v>
       </c>
@@ -7003,7 +7013,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="36">
         <v>48</v>
       </c>
@@ -7012,7 +7022,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="36">
         <v>49</v>
       </c>
@@ -7021,7 +7031,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="36">
         <v>50</v>
       </c>
@@ -7030,7 +7040,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="36">
         <v>51</v>
       </c>
@@ -7039,7 +7049,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="36">
         <v>52</v>
       </c>
@@ -7048,7 +7058,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="36">
         <v>53</v>
       </c>
@@ -7057,7 +7067,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="36">
         <v>54</v>
       </c>
@@ -7066,7 +7076,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="36">
         <v>55</v>
       </c>
@@ -7075,7 +7085,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="36">
         <v>56</v>
       </c>
@@ -7084,7 +7094,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="36">
         <v>57</v>
       </c>
@@ -7093,7 +7103,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="36">
         <v>58</v>
       </c>
@@ -7102,7 +7112,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="36">
         <v>59</v>
       </c>
@@ -7111,7 +7121,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="36">
         <v>60</v>
       </c>
@@ -7120,7 +7130,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/LORILLA, LOIDA.xlsx
+++ b/LORILLA, LOIDA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
   <si>
     <t>PERIOD</t>
   </si>
@@ -216,6 +216,18 @@
   </si>
   <si>
     <t>4/4,5,11/2023</t>
+  </si>
+  <si>
+    <t>SL(5-0-0)</t>
+  </si>
+  <si>
+    <t>5/8-12/2023</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>5/15,16/2023</t>
   </si>
 </sst>
 </file>
@@ -599,17 +611,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -619,6 +628,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1541,14 +1553,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1559,14 +1571,14 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1579,14 +1591,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1612,18 +1624,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3859,17 +3871,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3905,7 +3917,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3935,14 +3947,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3953,14 +3965,14 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3973,14 +3985,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -4006,18 +4018,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4074,7 +4086,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>128.58000000000001</v>
+        <v>121.58000000000001</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4192,8 +4204,12 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="24">
+        <v>45047</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="C15" s="14"/>
       <c r="D15" s="12"/>
       <c r="E15" s="9"/>
@@ -4202,14 +4218,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H15" s="12"/>
+      <c r="H15" s="12">
+        <v>5</v>
+      </c>
       <c r="I15" s="9"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="21"/>
+      <c r="K15" s="21" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
-      <c r="B16" s="12"/>
+      <c r="B16" s="12" t="s">
+        <v>62</v>
+      </c>
       <c r="C16" s="14"/>
       <c r="D16" s="12"/>
       <c r="E16" s="9"/>
@@ -4218,10 +4240,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H16" s="12"/>
+      <c r="H16" s="12">
+        <v>2</v>
+      </c>
       <c r="I16" s="9"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="21"/>
+      <c r="K16" s="21" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>

--- a/LORILLA, LOIDA.xlsx
+++ b/LORILLA, LOIDA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
   <si>
     <t>PERIOD</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>5/15,16/2023</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -464,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -611,14 +614,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -629,9 +635,6 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -640,6 +643,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1520,7 +1526,7 @@
   </sheetPr>
   <dimension ref="A2:K127"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A67"/>
       <selection activeCell="I9" sqref="I9"/>
       <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
@@ -1553,14 +1559,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1571,14 +1577,14 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -1591,14 +1597,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1624,18 +1630,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3871,17 +3877,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3914,10 +3920,10 @@
   </sheetPr>
   <dimension ref="A2:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" activePane="bottomLeft"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3570" topLeftCell="A4" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3947,14 +3953,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -3965,14 +3971,14 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -3985,14 +3991,14 @@
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -4018,18 +4024,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4076,7 +4082,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>113.532</v>
+        <v>112.532</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -4251,9 +4257,13 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
-      <c r="B17" s="12"/>
+      <c r="B17" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="C17" s="14"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
       <c r="E17" s="9"/>
       <c r="F17" s="12"/>
       <c r="G17" s="14" t="str">
@@ -4263,7 +4273,9 @@
       <c r="H17" s="12"/>
       <c r="I17" s="9"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="21"/>
+      <c r="K17" s="60">
+        <v>45077</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>

--- a/LORILLA, LOIDA.xlsx
+++ b/LORILLA, LOIDA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
   <si>
     <t>PERIOD</t>
   </si>
@@ -231,6 +231,15 @@
   </si>
   <si>
     <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>7/3,4/2023</t>
+  </si>
+  <si>
+    <t>SL(4-0-0)</t>
+  </si>
+  <si>
+    <t>6/26-30/2023</t>
   </si>
 </sst>
 </file>
@@ -611,20 +620,20 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -635,6 +644,9 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -643,9 +655,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1527,9 +1536,9 @@
   <dimension ref="A2:K127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A67"/>
+      <pane ySplit="3570" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
+      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,34 +1560,34 @@
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="54"/>
-      <c r="G3" s="50"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
@@ -1590,21 +1599,21 @@
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1630,18 +1639,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1688,7 +1697,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>51.25</v>
+        <v>57.5</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1698,7 +1707,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>76.25</v>
+        <v>76.5</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3060,15 +3069,19 @@
       <c r="K76" s="21"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="39"/>
+      <c r="A77" s="39">
+        <v>44958</v>
+      </c>
       <c r="B77" s="21"/>
-      <c r="C77" s="14"/>
+      <c r="C77" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D77" s="40"/>
       <c r="E77" s="9"/>
       <c r="F77" s="21"/>
-      <c r="G77" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G77" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H77" s="40"/>
       <c r="I77" s="9"/>
@@ -3076,15 +3089,19 @@
       <c r="K77" s="21"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="39"/>
+      <c r="A78" s="39">
+        <v>44986</v>
+      </c>
       <c r="B78" s="21"/>
-      <c r="C78" s="14"/>
+      <c r="C78" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="40"/>
       <c r="E78" s="9"/>
       <c r="F78" s="21"/>
-      <c r="G78" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="40"/>
       <c r="I78" s="9"/>
@@ -3092,15 +3109,19 @@
       <c r="K78" s="21"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="39"/>
+      <c r="A79" s="39">
+        <v>45017</v>
+      </c>
       <c r="B79" s="21"/>
-      <c r="C79" s="14"/>
+      <c r="C79" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D79" s="40"/>
       <c r="E79" s="9"/>
       <c r="F79" s="21"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G79" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H79" s="40"/>
       <c r="I79" s="9"/>
@@ -3108,15 +3129,19 @@
       <c r="K79" s="21"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="39"/>
+      <c r="A80" s="39">
+        <v>45047</v>
+      </c>
       <c r="B80" s="21"/>
-      <c r="C80" s="14"/>
+      <c r="C80" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D80" s="40"/>
       <c r="E80" s="9"/>
       <c r="F80" s="21"/>
-      <c r="G80" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G80" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H80" s="40"/>
       <c r="I80" s="9"/>
@@ -3124,15 +3149,19 @@
       <c r="K80" s="21"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="39"/>
+      <c r="A81" s="39">
+        <v>45078</v>
+      </c>
       <c r="B81" s="21"/>
-      <c r="C81" s="14"/>
+      <c r="C81" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D81" s="40"/>
       <c r="E81" s="9"/>
       <c r="F81" s="21"/>
-      <c r="G81" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G81" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H81" s="40"/>
       <c r="I81" s="9"/>
@@ -3140,8 +3169,12 @@
       <c r="K81" s="21"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="39"/>
-      <c r="B82" s="21"/>
+      <c r="A82" s="39">
+        <v>45108</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>62</v>
+      </c>
       <c r="C82" s="14"/>
       <c r="D82" s="40"/>
       <c r="E82" s="9"/>
@@ -3150,14 +3183,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H82" s="40"/>
+      <c r="H82" s="40">
+        <v>2</v>
+      </c>
       <c r="I82" s="9"/>
       <c r="J82" s="12"/>
-      <c r="K82" s="21"/>
+      <c r="K82" s="21" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="39"/>
-      <c r="B83" s="21"/>
+      <c r="B83" s="21" t="s">
+        <v>66</v>
+      </c>
       <c r="C83" s="14"/>
       <c r="D83" s="40"/>
       <c r="E83" s="9"/>
@@ -3166,14 +3205,20 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H83" s="40"/>
+      <c r="H83" s="40">
+        <v>4</v>
+      </c>
       <c r="I83" s="9"/>
       <c r="J83" s="12"/>
-      <c r="K83" s="21"/>
+      <c r="K83" s="21" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="39"/>
-      <c r="B84" s="21"/>
+      <c r="B84" s="21" t="s">
+        <v>43</v>
+      </c>
       <c r="C84" s="14"/>
       <c r="D84" s="40"/>
       <c r="E84" s="9"/>
@@ -3185,7 +3230,9 @@
       <c r="H84" s="40"/>
       <c r="I84" s="9"/>
       <c r="J84" s="12"/>
-      <c r="K84" s="21"/>
+      <c r="K84" s="49">
+        <v>45132</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="39"/>
@@ -3877,17 +3924,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3945,34 +3992,34 @@
       <c r="A2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="22" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="54"/>
-      <c r="G3" s="50"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
@@ -3984,21 +4031,21 @@
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -4024,18 +4071,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4273,7 +4320,7 @@
       <c r="H17" s="12"/>
       <c r="I17" s="9"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="60">
+      <c r="K17" s="49">
         <v>45077</v>
       </c>
     </row>
@@ -6116,17 +6163,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="J1" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
@@ -6212,12 +6259,12 @@
       <c r="F6" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="36">

--- a/LORILLA, LOIDA.xlsx
+++ b/LORILLA, LOIDA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -240,6 +240,15 @@
   </si>
   <si>
     <t>6/26-30/2023</t>
+  </si>
+  <si>
+    <t>VL(8-0-0)</t>
+  </si>
+  <si>
+    <t>9/7,13,14,19,20,26,27,28/2023</t>
+  </si>
+  <si>
+    <t>10/3,11,12,19,20,24,25,26/2023</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1183,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K127" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K125" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1533,12 +1542,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K127"/>
+  <dimension ref="A2:K125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
+      <selection pane="bottomLeft" activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1697,7 +1706,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>57.5</v>
+        <v>61.25</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1707,7 +1716,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>76.5</v>
+        <v>86.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3173,69 +3182,69 @@
         <v>45108</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C82" s="14"/>
+        <v>43</v>
+      </c>
+      <c r="C82" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D82" s="40"/>
       <c r="E82" s="9"/>
       <c r="F82" s="21"/>
-      <c r="G82" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H82" s="40">
-        <v>2</v>
-      </c>
+      <c r="G82" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H82" s="40"/>
       <c r="I82" s="9"/>
       <c r="J82" s="12"/>
-      <c r="K82" s="21" t="s">
-        <v>65</v>
+      <c r="K82" s="49">
+        <v>45132</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="39"/>
-      <c r="B83" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C83" s="14"/>
+      <c r="A83" s="39">
+        <v>45139</v>
+      </c>
+      <c r="B83" s="21"/>
+      <c r="C83" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="40"/>
       <c r="E83" s="9"/>
       <c r="F83" s="21"/>
-      <c r="G83" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H83" s="40">
-        <v>4</v>
-      </c>
+      <c r="G83" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H83" s="40"/>
       <c r="I83" s="9"/>
       <c r="J83" s="12"/>
-      <c r="K83" s="21" t="s">
-        <v>67</v>
-      </c>
+      <c r="K83" s="21"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="39"/>
-      <c r="B84" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C84" s="14"/>
+      <c r="A84" s="39">
+        <v>45170</v>
+      </c>
+      <c r="B84" s="21"/>
+      <c r="C84" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="40"/>
       <c r="E84" s="9"/>
       <c r="F84" s="21"/>
-      <c r="G84" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="40"/>
       <c r="I84" s="9"/>
       <c r="J84" s="12"/>
-      <c r="K84" s="49">
-        <v>45132</v>
-      </c>
+      <c r="K84" s="21"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="39"/>
+      <c r="A85" s="39">
+        <v>45200</v>
+      </c>
       <c r="B85" s="21"/>
       <c r="C85" s="14"/>
       <c r="D85" s="40"/>
@@ -3251,7 +3260,9 @@
       <c r="K85" s="21"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="39"/>
+      <c r="A86" s="39">
+        <v>45231</v>
+      </c>
       <c r="B86" s="21"/>
       <c r="C86" s="14"/>
       <c r="D86" s="40"/>
@@ -3875,52 +3886,20 @@
       <c r="K124" s="21"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="39"/>
-      <c r="B125" s="21"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="40"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="21"/>
-      <c r="G125" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H125" s="40"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="21"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="39"/>
-      <c r="B126" s="21"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="40"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="21"/>
-      <c r="G126" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H126" s="40"/>
-      <c r="I126" s="9"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="21"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="41"/>
-      <c r="B127" s="16"/>
-      <c r="C127" s="42"/>
-      <c r="D127" s="43"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="16"/>
-      <c r="G127" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H127" s="43"/>
-      <c r="I127" s="10"/>
-      <c r="J127" s="13"/>
-      <c r="K127" s="16"/>
+      <c r="A125" s="41"/>
+      <c r="B125" s="16"/>
+      <c r="C125" s="42"/>
+      <c r="D125" s="43"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H125" s="43"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="13"/>
+      <c r="K125" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3967,10 +3946,10 @@
   </sheetPr>
   <dimension ref="A2:K128"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A4" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A10" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomLeft" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4129,7 +4108,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>112.532</v>
+        <v>96.531999999999996</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -4139,7 +4118,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>121.58000000000001</v>
+        <v>115.58000000000001</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -4325,24 +4304,34 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="39">
+        <v>45108</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>62</v>
+      </c>
       <c r="C18" s="14"/>
-      <c r="D18" s="12"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="9"/>
       <c r="F18" s="12"/>
       <c r="G18" s="14" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H18" s="12"/>
+      <c r="H18" s="12">
+        <v>2</v>
+      </c>
       <c r="I18" s="9"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="21"/>
+      <c r="K18" s="21" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
-      <c r="B19" s="12"/>
+      <c r="B19" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="C19" s="14"/>
       <c r="D19" s="12"/>
       <c r="E19" s="9"/>
@@ -4351,16 +4340,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H19" s="12"/>
+      <c r="H19" s="12">
+        <v>4</v>
+      </c>
       <c r="I19" s="9"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="21"/>
+      <c r="K19" s="21" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="24"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="24">
+        <v>45170</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="C20" s="14"/>
-      <c r="D20" s="12"/>
+      <c r="D20" s="12">
+        <v>8</v>
+      </c>
       <c r="E20" s="9"/>
       <c r="F20" s="12"/>
       <c r="G20" s="14" t="str">
@@ -4370,13 +4369,21 @@
       <c r="H20" s="12"/>
       <c r="I20" s="9"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="21"/>
+      <c r="K20" s="21" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="24">
+        <v>45200</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>68</v>
+      </c>
       <c r="C21" s="14"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="12">
+        <v>8</v>
+      </c>
       <c r="E21" s="9"/>
       <c r="F21" s="12"/>
       <c r="G21" s="14" t="str">
@@ -4386,7 +4393,9 @@
       <c r="H21" s="12"/>
       <c r="I21" s="9"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="21"/>
+      <c r="K21" s="21" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="24"/>

--- a/LORILLA, LOIDA.xlsx
+++ b/LORILLA, LOIDA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="75">
   <si>
     <t>PERIOD</t>
   </si>
@@ -164,9 +164,6 @@
     <t>LORILLA, LOIDA</t>
   </si>
   <si>
-    <t>CONTRACTUAL</t>
-  </si>
-  <si>
     <t>SP(1-0-0)</t>
   </si>
   <si>
@@ -261,6 +258,9 @@
   </si>
   <si>
     <t>12/07-13,18-22,27-29/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -273,7 +273,7 @@
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +307,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -497,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -647,14 +654,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -665,9 +675,6 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -676,6 +683,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1225,7 +1235,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K128" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K117" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1556,10 +1566,10 @@
   </sheetPr>
   <dimension ref="A2:K125"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3570" topLeftCell="A67" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="D86" sqref="D86"/>
+      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1589,14 +1599,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -1607,34 +1617,34 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="50"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -1660,18 +1670,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1718,7 +1728,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>63.75</v>
+        <v>61.25</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -1728,7 +1738,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>88.75</v>
+        <v>91.25</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -1980,7 +1990,7 @@
         <v>43435</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="14">
         <v>1.25</v>
@@ -2242,7 +2252,7 @@
         <v>43800</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" s="14">
         <v>1.25</v>
@@ -2504,7 +2514,7 @@
         <v>44166</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48" s="14">
         <v>1.25</v>
@@ -2766,7 +2776,7 @@
         <v>44531</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C61" s="14">
         <v>1.25</v>
@@ -2793,7 +2803,7 @@
       <c r="C62" s="14"/>
       <c r="D62" s="12"/>
       <c r="E62" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F62" s="12"/>
       <c r="G62" s="14" t="str">
@@ -3030,7 +3040,7 @@
         <v>44896</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C74" s="14">
         <v>1.25</v>
@@ -3048,12 +3058,12 @@
       <c r="I74" s="9"/>
       <c r="J74" s="12"/>
       <c r="K74" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B75" s="21"/>
       <c r="C75" s="14"/>
@@ -3194,7 +3204,7 @@
         <v>45108</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C82" s="14">
         <v>1.25</v>
@@ -3294,15 +3304,23 @@
       <c r="K86" s="21"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="39"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="40"/>
+      <c r="A87" s="39">
+        <v>45261</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C87" s="14">
+        <v>1.25</v>
+      </c>
+      <c r="D87" s="40">
+        <v>5</v>
+      </c>
       <c r="E87" s="9"/>
       <c r="F87" s="21"/>
-      <c r="G87" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="40"/>
       <c r="I87" s="9"/>
@@ -3310,7 +3328,9 @@
       <c r="K87" s="21"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="39"/>
+      <c r="A88" s="38" t="s">
+        <v>74</v>
+      </c>
       <c r="B88" s="21"/>
       <c r="C88" s="14"/>
       <c r="D88" s="40"/>
@@ -3326,15 +3346,19 @@
       <c r="K88" s="21"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="39"/>
+      <c r="A89" s="39">
+        <v>45322</v>
+      </c>
       <c r="B89" s="21"/>
-      <c r="C89" s="14"/>
+      <c r="C89" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="40"/>
       <c r="E89" s="9"/>
       <c r="F89" s="21"/>
-      <c r="G89" s="14" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="14">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="40"/>
       <c r="I89" s="9"/>
@@ -3919,17 +3943,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3960,12 +3984,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K128"/>
+  <dimension ref="A2:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A5" activePane="bottomLeft"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3995,14 +4019,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="11"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="26"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
@@ -4013,34 +4037,34 @@
       <c r="D3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="27" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="27"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" s="50"/>
       <c r="D4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="27"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="17"/>
@@ -4066,18 +4090,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4170,7 +4194,7 @@
         <v>44769</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="12"/>
@@ -4184,7 +4208,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="12"/>
       <c r="K11" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4206,12 +4230,12 @@
       <c r="I12" s="9"/>
       <c r="J12" s="12"/>
       <c r="K12" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="14"/>
@@ -4248,7 +4272,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="12"/>
       <c r="K14" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4256,7 +4280,7 @@
         <v>45047</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="12"/>
@@ -4272,13 +4296,13 @@
       <c r="I15" s="9"/>
       <c r="J15" s="12"/>
       <c r="K15" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="12"/>
@@ -4294,13 +4318,13 @@
       <c r="I16" s="9"/>
       <c r="J16" s="12"/>
       <c r="K16" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="12">
@@ -4324,7 +4348,7 @@
         <v>45108</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="40"/>
@@ -4340,13 +4364,13 @@
       <c r="I18" s="9"/>
       <c r="J18" s="12"/>
       <c r="K18" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="24"/>
       <c r="B19" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="12"/>
@@ -4362,7 +4386,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="12"/>
       <c r="K19" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -4370,7 +4394,7 @@
         <v>45170</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="12">
@@ -4385,8 +4409,8 @@
       <c r="H20" s="12"/>
       <c r="I20" s="9"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="21" t="s">
-        <v>69</v>
+      <c r="K20" s="61" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -4394,7 +4418,7 @@
         <v>45200</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="12">
@@ -4409,8 +4433,8 @@
       <c r="H21" s="12"/>
       <c r="I21" s="9"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="21" t="s">
-        <v>70</v>
+      <c r="K21" s="61" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -4418,7 +4442,7 @@
         <v>45231</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="12">
@@ -4434,13 +4458,13 @@
       <c r="I22" s="9"/>
       <c r="J22" s="12"/>
       <c r="K22" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
       <c r="B23" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="13">
@@ -4456,7 +4480,7 @@
       <c r="I23" s="10"/>
       <c r="J23" s="13"/>
       <c r="K23" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -5962,182 +5986,6 @@
       <c r="I117" s="9"/>
       <c r="J117" s="12"/>
       <c r="K117" s="21"/>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="39"/>
-      <c r="B118" s="21"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="40"/>
-      <c r="E118" s="9"/>
-      <c r="F118" s="21"/>
-      <c r="G118" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H118" s="40"/>
-      <c r="I118" s="9"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="21"/>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="39"/>
-      <c r="B119" s="21"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="40"/>
-      <c r="E119" s="9"/>
-      <c r="F119" s="21"/>
-      <c r="G119" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H119" s="40"/>
-      <c r="I119" s="9"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="21"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="39"/>
-      <c r="B120" s="21"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="40"/>
-      <c r="E120" s="9"/>
-      <c r="F120" s="21"/>
-      <c r="G120" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H120" s="40"/>
-      <c r="I120" s="9"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="21"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="39"/>
-      <c r="B121" s="21"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="40"/>
-      <c r="E121" s="9"/>
-      <c r="F121" s="21"/>
-      <c r="G121" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H121" s="40"/>
-      <c r="I121" s="9"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="21"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="39"/>
-      <c r="B122" s="21"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="40"/>
-      <c r="E122" s="9"/>
-      <c r="F122" s="21"/>
-      <c r="G122" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H122" s="40"/>
-      <c r="I122" s="9"/>
-      <c r="J122" s="12"/>
-      <c r="K122" s="21"/>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="39"/>
-      <c r="B123" s="21"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="40"/>
-      <c r="E123" s="9"/>
-      <c r="F123" s="21"/>
-      <c r="G123" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H123" s="40"/>
-      <c r="I123" s="9"/>
-      <c r="J123" s="12"/>
-      <c r="K123" s="21"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="39"/>
-      <c r="B124" s="21"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="40"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="21"/>
-      <c r="G124" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H124" s="40"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="21"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="39"/>
-      <c r="B125" s="21"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="40"/>
-      <c r="E125" s="9"/>
-      <c r="F125" s="21"/>
-      <c r="G125" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H125" s="40"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="21"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="39"/>
-      <c r="B126" s="21"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="40"/>
-      <c r="E126" s="9"/>
-      <c r="F126" s="21"/>
-      <c r="G126" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H126" s="40"/>
-      <c r="I126" s="9"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="21"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="39"/>
-      <c r="B127" s="21"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="40"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="21"/>
-      <c r="G127" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H127" s="40"/>
-      <c r="I127" s="9"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="21"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="41"/>
-      <c r="B128" s="16"/>
-      <c r="C128" s="42"/>
-      <c r="D128" s="43"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="16"/>
-      <c r="G128" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H128" s="43"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="13"/>
-      <c r="K128" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6209,7 +6057,7 @@
       <c r="F1" s="58"/>
       <c r="G1" s="58"/>
       <c r="J1" s="59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
@@ -6234,13 +6082,13 @@
         <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="44" t="s">
         <v>49</v>
-      </c>
-      <c r="L2" s="44" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -6299,7 +6147,7 @@
         <v>30</v>
       </c>
       <c r="I6" s="60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J6" s="60"/>
       <c r="K6" s="60"/>
@@ -6319,16 +6167,16 @@
         <v>0.125</v>
       </c>
       <c r="I7" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="J7" s="31" t="s">
+      <c r="K7" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="K7" s="31" t="s">
-        <v>54</v>
-      </c>
       <c r="L7" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
